--- a/output/phenology_updates/summary_mean_table.xlsx
+++ b/output/phenology_updates/summary_mean_table.xlsx
@@ -383,7 +383,7 @@
         </is>
       </c>
       <c r="B2" s="2">
-        <v>45803.96</v>
+        <v>45804.30769230769</v>
       </c>
     </row>
     <row r="3">
@@ -393,7 +393,7 @@
         </is>
       </c>
       <c r="B3" s="2">
-        <v>45808.88</v>
+        <v>45809.15384615384</v>
       </c>
     </row>
     <row r="4">
@@ -403,7 +403,7 @@
         </is>
       </c>
       <c r="B4" s="2">
-        <v>45821.96</v>
+        <v>45822.23076923077</v>
       </c>
     </row>
     <row r="5">
@@ -413,7 +413,7 @@
         </is>
       </c>
       <c r="B5" s="2">
-        <v>45832.96</v>
+        <v>45833.23076923077</v>
       </c>
     </row>
   </sheetData>
